--- a/xlsx/rq3.xlsx
+++ b/xlsx/rq3.xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\articles\2024\MuTChatbots\paper\temp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEC125F-FD99-406E-82EB-AD16DB967806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4959A0-6B18-467A-AFA9-3FB085858E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -319,10 +314,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8297,7 +8292,8 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8824,10 +8820,11 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="D18" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8842,21 +8839,21 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
       <c r="K1" t="s">
         <v>19</v>
       </c>
@@ -8922,7 +8919,7 @@
         <v>47</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f>IF(AND($O3&gt;0,B3&gt;0),CONCATENATE(ROUNDUP(B3/$O3*100,1),"%"),"")</f>
+        <f t="shared" ref="C3:C18" si="0">IF(AND($O3&gt;0,B3&gt;0),CONCATENATE(ROUNDUP(B3/$O3*100,1),"%"),"")</f>
         <v>52,3%</v>
       </c>
       <c r="D3" s="2">
@@ -8932,14 +8929,14 @@
         <v>71</v>
       </c>
       <c r="F3" s="2" t="str">
-        <f>IF(AND($O3&gt;0,E3&gt;0),CONCATENATE(ROUNDUP(E3/$O3*100,1),"%"),"")</f>
+        <f t="shared" ref="F3:F10" si="1">IF(AND($O3&gt;0,E3&gt;0),CONCATENATE(ROUNDUP(E3/$O3*100,1),"%"),"")</f>
         <v>78,9%</v>
       </c>
       <c r="G3" s="2">
         <v>107</v>
       </c>
       <c r="I3" s="2" t="str">
-        <f>IF(AND($O3&gt;0,H3&gt;0),CONCATENATE(ROUNDUP(H3/$O3*100,1),"%"),"")</f>
+        <f t="shared" ref="I3:I10" si="2">IF(AND($O3&gt;0,H3&gt;0),CONCATENATE(ROUNDUP(H3/$O3*100,1),"%"),"")</f>
         <v/>
       </c>
       <c r="J3" s="2"/>
@@ -8950,22 +8947,22 @@
         <v>47</v>
       </c>
       <c r="M3" s="2" t="str">
-        <f>IF(AND(L3&lt;&gt;"",$O3&gt;0),CONCATENATE(ROUNDUP(L3/$O3*100,1),"%"),"")</f>
+        <f t="shared" ref="M3:M10" si="3">IF(AND(L3&lt;&gt;"",$O3&gt;0),CONCATENATE(ROUNDUP(L3/$O3*100,1),"%"),"")</f>
         <v>52,3%</v>
       </c>
       <c r="N3" s="2" t="str">
-        <f>IF(AND($O3&gt;0,K3&gt;0),CONCATENATE(ROUNDUP(K3/$O3*100,1),"%"),"")</f>
+        <f t="shared" ref="N3:N10" si="4">IF(AND($O3&gt;0,K3&gt;0),CONCATENATE(ROUNDUP(K3/$O3*100,1),"%"),"")</f>
         <v>78,9%</v>
       </c>
       <c r="O3">
         <v>90</v>
       </c>
       <c r="P3">
-        <f>IF(E3&lt;&gt;"",O3,"")</f>
+        <f t="shared" ref="P3:P10" si="5">IF(E3&lt;&gt;"",O3,"")</f>
         <v>90</v>
       </c>
       <c r="Q3" t="str">
-        <f>IF(H3&lt;&gt;"",O3,"")</f>
+        <f t="shared" ref="Q3:Q10" si="6">IF(H3&lt;&gt;"",O3,"")</f>
         <v/>
       </c>
     </row>
@@ -8977,14 +8974,14 @@
         <v>29</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f>IF(AND($O4&gt;0,B4&gt;0),CONCATENATE(ROUNDUP(B4/$O4*100,1),"%"),"")</f>
+        <f t="shared" si="0"/>
         <v>40,3%</v>
       </c>
       <c r="D4" s="2">
         <v>63</v>
       </c>
       <c r="F4" s="2" t="str">
-        <f>IF(AND($O4&gt;0,E4&gt;0),CONCATENATE(ROUNDUP(E4/$O4*100,1),"%"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G4" s="2"/>
@@ -8992,7 +8989,7 @@
         <v>53</v>
       </c>
       <c r="I4" s="2" t="str">
-        <f>IF(AND($O4&gt;0,H4&gt;0),CONCATENATE(ROUNDUP(H4/$O4*100,1),"%"),"")</f>
+        <f t="shared" si="2"/>
         <v>73,7%</v>
       </c>
       <c r="J4" s="2">
@@ -9005,22 +9002,22 @@
         <v>22</v>
       </c>
       <c r="M4" s="2" t="str">
-        <f>IF(AND(L4&lt;&gt;"",$O4&gt;0),CONCATENATE(ROUNDUP(L4/$O4*100,1),"%"),"")</f>
+        <f t="shared" si="3"/>
         <v>30,6%</v>
       </c>
       <c r="N4" s="2" t="str">
-        <f>IF(AND($O4&gt;0,K4&gt;0),CONCATENATE(ROUNDUP(K4/$O4*100,1),"%"),"")</f>
+        <f t="shared" si="4"/>
         <v>83,4%</v>
       </c>
       <c r="O4">
         <v>72</v>
       </c>
       <c r="P4" t="str">
-        <f>IF(E4&lt;&gt;"",O4,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q4">
-        <f>IF(H4&lt;&gt;"",O4,"")</f>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
     </row>
@@ -9032,19 +9029,19 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f>IF(AND($O5&gt;0,B5&gt;0),CONCATENATE(ROUNDUP(B5/$O5*100,1),"%"),"")</f>
+        <f t="shared" si="0"/>
         <v>37,5%</v>
       </c>
       <c r="D5" s="2">
         <v>18</v>
       </c>
       <c r="F5" s="2" t="str">
-        <f>IF(AND($O5&gt;0,E5&gt;0),CONCATENATE(ROUNDUP(E5/$O5*100,1),"%"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G5" s="2"/>
       <c r="I5" s="2" t="str">
-        <f>IF(AND($O5&gt;0,H5&gt;0),CONCATENATE(ROUNDUP(H5/$O5*100,1),"%"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J5" s="2"/>
@@ -9055,22 +9052,22 @@
         <v>0</v>
       </c>
       <c r="M5" s="2" t="str">
-        <f>IF(AND(L5&lt;&gt;"",$O5&gt;0),CONCATENATE(ROUNDUP(L5/$O5*100,1),"%"),"")</f>
+        <f t="shared" si="3"/>
         <v>0%</v>
       </c>
       <c r="N5" s="2" t="str">
-        <f>IF(AND($O5&gt;0,K5&gt;0),CONCATENATE(ROUNDUP(K5/$O5*100,1),"%"),"")</f>
+        <f t="shared" si="4"/>
         <v>37,5%</v>
       </c>
       <c r="O5">
         <v>32</v>
       </c>
       <c r="P5" t="str">
-        <f>IF(E5&lt;&gt;"",O5,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q5" t="str">
-        <f>IF(H5&lt;&gt;"",O5,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9082,14 +9079,14 @@
         <v>46</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f>IF(AND($O6&gt;0,B6&gt;0),CONCATENATE(ROUNDUP(B6/$O6*100,1),"%"),"")</f>
+        <f t="shared" si="0"/>
         <v>49,5%</v>
       </c>
       <c r="D6" s="2">
         <v>87</v>
       </c>
       <c r="F6" s="2" t="str">
-        <f>IF(AND($O6&gt;0,E6&gt;0),CONCATENATE(ROUNDUP(E6/$O6*100,1),"%"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G6" s="2"/>
@@ -9097,7 +9094,7 @@
         <v>19</v>
       </c>
       <c r="I6" s="2" t="str">
-        <f>IF(AND($O6&gt;0,H6&gt;0),CONCATENATE(ROUNDUP(H6/$O6*100,1),"%"),"")</f>
+        <f t="shared" si="2"/>
         <v>20,5%</v>
       </c>
       <c r="J6" s="2">
@@ -9110,22 +9107,22 @@
         <v>1</v>
       </c>
       <c r="M6" s="2" t="str">
-        <f>IF(AND(L6&lt;&gt;"",$O6&gt;0),CONCATENATE(ROUNDUP(L6/$O6*100,1),"%"),"")</f>
+        <f t="shared" si="3"/>
         <v>1,1%</v>
       </c>
       <c r="N6" s="2" t="str">
-        <f>IF(AND($O6&gt;0,K6&gt;0),CONCATENATE(ROUNDUP(K6/$O6*100,1),"%"),"")</f>
+        <f t="shared" si="4"/>
         <v>68,9%</v>
       </c>
       <c r="O6">
         <v>93</v>
       </c>
       <c r="P6" t="str">
-        <f>IF(E6&lt;&gt;"",O6,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q6">
-        <f>IF(H6&lt;&gt;"",O6,"")</f>
+        <f t="shared" si="6"/>
         <v>93</v>
       </c>
     </row>
@@ -9137,14 +9134,14 @@
         <v>38</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f>IF(AND($O7&gt;0,B7&gt;0),CONCATENATE(ROUNDUP(B7/$O7*100,1),"%"),"")</f>
+        <f t="shared" si="0"/>
         <v>63,4%</v>
       </c>
       <c r="D7" s="2">
         <v>100</v>
       </c>
       <c r="F7" s="2" t="str">
-        <f>IF(AND($O7&gt;0,E7&gt;0),CONCATENATE(ROUNDUP(E7/$O7*100,1),"%"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G7" s="2"/>
@@ -9152,7 +9149,7 @@
         <v>9</v>
       </c>
       <c r="I7" s="2" t="str">
-        <f>IF(AND($O7&gt;0,H7&gt;0),CONCATENATE(ROUNDUP(H7/$O7*100,1),"%"),"")</f>
+        <f t="shared" si="2"/>
         <v>15%</v>
       </c>
       <c r="J7" s="2">
@@ -9165,22 +9162,22 @@
         <v>0</v>
       </c>
       <c r="M7" s="2" t="str">
-        <f>IF(AND(L7&lt;&gt;"",$O7&gt;0),CONCATENATE(ROUNDUP(L7/$O7*100,1),"%"),"")</f>
+        <f t="shared" si="3"/>
         <v>0%</v>
       </c>
       <c r="N7" s="2" t="str">
-        <f>IF(AND($O7&gt;0,K7&gt;0),CONCATENATE(ROUNDUP(K7/$O7*100,1),"%"),"")</f>
+        <f t="shared" si="4"/>
         <v>78,4%</v>
       </c>
       <c r="O7">
         <v>60</v>
       </c>
       <c r="P7" t="str">
-        <f>IF(E7&lt;&gt;"",O7,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q7">
-        <f>IF(H7&lt;&gt;"",O7,"")</f>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
     </row>
@@ -9192,14 +9189,14 @@
         <v>18</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f>IF(AND($O8&gt;0,B8&gt;0),CONCATENATE(ROUNDUP(B8/$O8*100,1),"%"),"")</f>
+        <f t="shared" si="0"/>
         <v>46,2%</v>
       </c>
       <c r="D8" s="2">
         <v>33</v>
       </c>
       <c r="F8" s="2" t="str">
-        <f>IF(AND($O8&gt;0,E8&gt;0),CONCATENATE(ROUNDUP(E8/$O8*100,1),"%"),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G8" s="2"/>
@@ -9207,7 +9204,7 @@
         <v>14</v>
       </c>
       <c r="I8" s="2" t="str">
-        <f>IF(AND($O8&gt;0,H8&gt;0),CONCATENATE(ROUNDUP(H8/$O8*100,1),"%"),"")</f>
+        <f t="shared" si="2"/>
         <v>35,9%</v>
       </c>
       <c r="J8" s="2">
@@ -9220,22 +9217,22 @@
         <v>0</v>
       </c>
       <c r="M8" s="2" t="str">
-        <f>IF(AND(L8&lt;&gt;"",$O8&gt;0),CONCATENATE(ROUNDUP(L8/$O8*100,1),"%"),"")</f>
+        <f t="shared" si="3"/>
         <v>0%</v>
       </c>
       <c r="N8" s="2" t="str">
-        <f>IF(AND($O8&gt;0,K8&gt;0),CONCATENATE(ROUNDUP(K8/$O8*100,1),"%"),"")</f>
+        <f t="shared" si="4"/>
         <v>82,1%</v>
       </c>
       <c r="O8">
         <v>39</v>
       </c>
       <c r="P8" t="str">
-        <f>IF(E8&lt;&gt;"",O8,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q8">
-        <f>IF(H8&lt;&gt;"",O8,"")</f>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
     </row>
@@ -9247,7 +9244,7 @@
         <v>33</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f>IF(AND($O9&gt;0,B9&gt;0),CONCATENATE(ROUNDUP(B9/$O9*100,1),"%"),"")</f>
+        <f t="shared" si="0"/>
         <v>56%</v>
       </c>
       <c r="D9" s="2">
@@ -9257,14 +9254,14 @@
         <v>59</v>
       </c>
       <c r="F9" s="2" t="str">
-        <f>IF(AND($O9&gt;0,E9&gt;0),CONCATENATE(ROUNDUP(E9/$O9*100,1),"%"),"")</f>
+        <f t="shared" si="1"/>
         <v>100%</v>
       </c>
       <c r="G9" s="2">
         <v>2212</v>
       </c>
       <c r="I9" s="2" t="str">
-        <f>IF(AND($O9&gt;0,H9&gt;0),CONCATENATE(ROUNDUP(H9/$O9*100,1),"%"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J9" s="2"/>
@@ -9275,22 +9272,22 @@
         <v>33</v>
       </c>
       <c r="M9" s="2" t="str">
-        <f>IF(AND(L9&lt;&gt;"",$O9&gt;0),CONCATENATE(ROUNDUP(L9/$O9*100,1),"%"),"")</f>
+        <f t="shared" si="3"/>
         <v>56%</v>
       </c>
       <c r="N9" s="2" t="str">
-        <f>IF(AND($O9&gt;0,K9&gt;0),CONCATENATE(ROUNDUP(K9/$O9*100,1),"%"),"")</f>
+        <f t="shared" si="4"/>
         <v>100%</v>
       </c>
       <c r="O9">
         <v>59</v>
       </c>
       <c r="P9">
-        <f>IF(E9&lt;&gt;"",O9,"")</f>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="Q9" t="str">
-        <f>IF(H9&lt;&gt;"",O9,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9302,7 +9299,7 @@
         <v>40</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f>IF(AND($O10&gt;0,B10&gt;0),CONCATENATE(ROUNDUP(B10/$O10*100,1),"%"),"")</f>
+        <f t="shared" si="0"/>
         <v>51,3%</v>
       </c>
       <c r="D10" s="2">
@@ -9312,7 +9309,7 @@
         <v>78</v>
       </c>
       <c r="F10" s="2" t="str">
-        <f>IF(AND($O10&gt;0,E10&gt;0),CONCATENATE(ROUNDUP(E10/$O10*100,1),"%"),"")</f>
+        <f t="shared" si="1"/>
         <v>100%</v>
       </c>
       <c r="G10" s="2">
@@ -9322,7 +9319,7 @@
         <v>38</v>
       </c>
       <c r="I10" s="2" t="str">
-        <f>IF(AND($O10&gt;0,H10&gt;0),CONCATENATE(ROUNDUP(H10/$O10*100,1),"%"),"")</f>
+        <f t="shared" si="2"/>
         <v>48,8%</v>
       </c>
       <c r="J10" s="2">
@@ -9335,22 +9332,22 @@
         <v>12</v>
       </c>
       <c r="M10" s="2" t="str">
-        <f>IF(AND(L10&lt;&gt;"",$O10&gt;0),CONCATENATE(ROUNDUP(L10/$O10*100,1),"%"),"")</f>
+        <f t="shared" si="3"/>
         <v>15,4%</v>
       </c>
       <c r="N10" s="2" t="str">
-        <f>IF(AND($O10&gt;0,K10&gt;0),CONCATENATE(ROUNDUP(K10/$O10*100,1),"%"),"")</f>
+        <f t="shared" si="4"/>
         <v>100%</v>
       </c>
       <c r="O10">
         <v>78</v>
       </c>
       <c r="P10">
-        <f>IF(E10&lt;&gt;"",O10,"")</f>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="Q10">
-        <f>IF(H10&lt;&gt;"",O10,"")</f>
+        <f t="shared" si="6"/>
         <v>78</v>
       </c>
     </row>
@@ -9362,14 +9359,14 @@
         <v>45</v>
       </c>
       <c r="C11" s="2" t="str">
-        <f>IF(AND($O11&gt;0,B11&gt;0),CONCATENATE(ROUNDUP(B11/$O11*100,1),"%"),"")</f>
+        <f t="shared" si="0"/>
         <v>53%</v>
       </c>
       <c r="D11" s="2">
         <v>401</v>
       </c>
       <c r="F11" s="2" t="str">
-        <f t="shared" ref="F11:F13" si="0">IF(AND($O11&gt;0,E11&gt;0),CONCATENATE(ROUNDUP(E11/$O11*100,1),"%"),"")</f>
+        <f t="shared" ref="F11:F13" si="7">IF(AND($O11&gt;0,E11&gt;0),CONCATENATE(ROUNDUP(E11/$O11*100,1),"%"),"")</f>
         <v/>
       </c>
       <c r="G11" s="2"/>
@@ -9377,7 +9374,7 @@
         <v>9</v>
       </c>
       <c r="I11" s="2" t="str">
-        <f t="shared" ref="I11:I13" si="1">IF(AND($O11&gt;0,H11&gt;0),CONCATENATE(ROUNDUP(H11/$O11*100,1),"%"),"")</f>
+        <f t="shared" ref="I11:I13" si="8">IF(AND($O11&gt;0,H11&gt;0),CONCATENATE(ROUNDUP(H11/$O11*100,1),"%"),"")</f>
         <v>10,6%</v>
       </c>
       <c r="J11" s="2">
@@ -9390,22 +9387,22 @@
         <v>0</v>
       </c>
       <c r="M11" s="2" t="str">
-        <f t="shared" ref="M11:M13" si="2">IF(AND(L11&lt;&gt;"",$O11&gt;0),CONCATENATE(ROUNDUP(L11/$O11*100,1),"%"),"")</f>
+        <f t="shared" ref="M11:M13" si="9">IF(AND(L11&lt;&gt;"",$O11&gt;0),CONCATENATE(ROUNDUP(L11/$O11*100,1),"%"),"")</f>
         <v>0%</v>
       </c>
       <c r="N11" s="2" t="str">
-        <f t="shared" ref="N11:N13" si="3">IF(AND($O11&gt;0,K11&gt;0),CONCATENATE(ROUNDUP(K11/$O11*100,1),"%"),"")</f>
+        <f t="shared" ref="N11:N13" si="10">IF(AND($O11&gt;0,K11&gt;0),CONCATENATE(ROUNDUP(K11/$O11*100,1),"%"),"")</f>
         <v>63,6%</v>
       </c>
       <c r="O11">
         <v>85</v>
       </c>
       <c r="P11" t="str">
-        <f t="shared" ref="P11:P14" si="4">IF(E11&lt;&gt;"",O11,"")</f>
+        <f t="shared" ref="P11:P14" si="11">IF(E11&lt;&gt;"",O11,"")</f>
         <v/>
       </c>
       <c r="Q11">
-        <f t="shared" ref="Q11:Q14" si="5">IF(H11&lt;&gt;"",O11,"")</f>
+        <f t="shared" ref="Q11:Q14" si="12">IF(H11&lt;&gt;"",O11,"")</f>
         <v>85</v>
       </c>
     </row>
@@ -9417,7 +9414,7 @@
         <v>72</v>
       </c>
       <c r="C12" s="2" t="str">
-        <f>IF(AND($O12&gt;0,B12&gt;0),CONCATENATE(ROUNDUP(B12/$O12*100,1),"%"),"")</f>
+        <f t="shared" si="0"/>
         <v>75,8%</v>
       </c>
       <c r="D12" s="2">
@@ -9427,14 +9424,14 @@
         <v>73</v>
       </c>
       <c r="F12" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>76,9%</v>
       </c>
       <c r="G12" s="2">
         <v>131</v>
       </c>
       <c r="I12" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J12" s="2"/>
@@ -9445,22 +9442,22 @@
         <v>63</v>
       </c>
       <c r="M12" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>66,4%</v>
       </c>
       <c r="N12" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>86,4%</v>
       </c>
       <c r="O12">
         <v>95</v>
       </c>
       <c r="P12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>95</v>
       </c>
       <c r="Q12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9472,19 +9469,19 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="str">
-        <f>IF(AND($O13&gt;0,B13&gt;0),CONCATENATE(ROUNDUP(B13/$O13*100,1),"%"),"")</f>
+        <f t="shared" si="0"/>
         <v>21,3%</v>
       </c>
       <c r="D13" s="2">
         <v>13</v>
       </c>
       <c r="F13" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G13" s="2"/>
       <c r="I13" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J13" s="2"/>
@@ -9495,22 +9492,22 @@
         <v>0</v>
       </c>
       <c r="M13" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0%</v>
       </c>
       <c r="N13" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>21,3%</v>
       </c>
       <c r="O13">
         <v>47</v>
       </c>
       <c r="P13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9522,7 +9519,7 @@
         <v>32</v>
       </c>
       <c r="C14" s="2" t="str">
-        <f>IF(AND($O14&gt;0,B14&gt;0),CONCATENATE(ROUNDUP(B14/$O14*100,1),"%"),"")</f>
+        <f t="shared" si="0"/>
         <v>41,1%</v>
       </c>
       <c r="D14" s="2">
@@ -9561,11 +9558,11 @@
         <v>78</v>
       </c>
       <c r="P14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>78</v>
       </c>
       <c r="Q14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9577,7 +9574,7 @@
         <v>151</v>
       </c>
       <c r="C15" s="2" t="str">
-        <f>IF(AND($O15&gt;0,B15&gt;0),CONCATENATE(ROUNDUP(B15/$O15*100,1),"%"),"")</f>
+        <f t="shared" si="0"/>
         <v>41,4%</v>
       </c>
       <c r="D15" s="2">
@@ -9632,7 +9629,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="2" t="str">
-        <f>IF(AND($O16&gt;0,B16&gt;0),CONCATENATE(ROUNDUP(B16/$O16*100,1),"%"),"")</f>
+        <f t="shared" si="0"/>
         <v>11,4%</v>
       </c>
       <c r="D16" s="2">
@@ -9687,7 +9684,7 @@
         <v>196</v>
       </c>
       <c r="C17" s="2" t="str">
-        <f>IF(AND($O17&gt;0,B17&gt;0),CONCATENATE(ROUNDUP(B17/$O17*100,1),"%"),"")</f>
+        <f t="shared" si="0"/>
         <v>63,7%</v>
       </c>
       <c r="D17" s="2">
@@ -9697,14 +9694,14 @@
         <v>308</v>
       </c>
       <c r="F17" s="2" t="str">
-        <f t="shared" ref="F17" si="6">IF(AND($O17&gt;0,E17&gt;0),CONCATENATE(ROUNDUP(E17/$O17*100,1),"%"),"")</f>
+        <f t="shared" ref="F17" si="13">IF(AND($O17&gt;0,E17&gt;0),CONCATENATE(ROUNDUP(E17/$O17*100,1),"%"),"")</f>
         <v>100%</v>
       </c>
       <c r="G17" s="2">
         <v>1801</v>
       </c>
       <c r="I17" s="2" t="str">
-        <f t="shared" ref="I17" si="7">IF(AND($O17&gt;0,H17&gt;0),CONCATENATE(ROUNDUP(H17/$O17*100,1),"%"),"")</f>
+        <f t="shared" ref="I17" si="14">IF(AND($O17&gt;0,H17&gt;0),CONCATENATE(ROUNDUP(H17/$O17*100,1),"%"),"")</f>
         <v/>
       </c>
       <c r="J17" s="2"/>
@@ -9715,22 +9712,22 @@
         <v>196</v>
       </c>
       <c r="M17" s="2" t="str">
-        <f t="shared" ref="M17" si="8">IF(AND(L17&lt;&gt;"",$O17&gt;0),CONCATENATE(ROUNDUP(L17/$O17*100,1),"%"),"")</f>
+        <f t="shared" ref="M17" si="15">IF(AND(L17&lt;&gt;"",$O17&gt;0),CONCATENATE(ROUNDUP(L17/$O17*100,1),"%"),"")</f>
         <v>63,7%</v>
       </c>
       <c r="N17" s="2" t="str">
-        <f t="shared" ref="N17" si="9">IF(AND($O17&gt;0,K17&gt;0),CONCATENATE(ROUNDUP(K17/$O17*100,1),"%"),"")</f>
+        <f t="shared" ref="N17" si="16">IF(AND($O17&gt;0,K17&gt;0),CONCATENATE(ROUNDUP(K17/$O17*100,1),"%"),"")</f>
         <v>100%</v>
       </c>
       <c r="O17">
         <v>308</v>
       </c>
       <c r="P17">
-        <f t="shared" ref="P17" si="10">IF(E17&lt;&gt;"",O17,"")</f>
+        <f t="shared" ref="P17" si="17">IF(E17&lt;&gt;"",O17,"")</f>
         <v>308</v>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" ref="Q17" si="11">IF(H17&lt;&gt;"",O17,"")</f>
+        <f t="shared" ref="Q17" si="18">IF(H17&lt;&gt;"",O17,"")</f>
         <v/>
       </c>
     </row>
@@ -9743,7 +9740,7 @@
         <v>798</v>
       </c>
       <c r="C18" s="2" t="str">
-        <f>IF(AND($O18&gt;0,B18&gt;0),CONCATENATE(ROUNDUP(B18/$O18*100,1),"%"),"")</f>
+        <f t="shared" si="0"/>
         <v>45,5%</v>
       </c>
       <c r="D18" s="2">
@@ -9809,7 +9806,7 @@
       <c r="A23" s="2">
         <v>63</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>52.3</v>
       </c>
     </row>
@@ -9817,7 +9814,7 @@
       <c r="A24" s="2">
         <v>63</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="10">
         <v>40.299999999999997</v>
       </c>
     </row>
@@ -9825,7 +9822,7 @@
       <c r="A25" s="2">
         <v>18</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>37.5</v>
       </c>
     </row>
@@ -9833,7 +9830,7 @@
       <c r="A26" s="2">
         <v>87</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>49.5</v>
       </c>
     </row>
@@ -9841,7 +9838,7 @@
       <c r="A27" s="2">
         <v>100</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>63.4</v>
       </c>
     </row>
@@ -9849,7 +9846,7 @@
       <c r="A28" s="2">
         <v>33</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <v>46.2</v>
       </c>
     </row>
@@ -9857,7 +9854,7 @@
       <c r="A29" s="2">
         <v>39</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <v>56</v>
       </c>
     </row>
@@ -9865,7 +9862,7 @@
       <c r="A30" s="2">
         <v>49</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="10">
         <v>51.3</v>
       </c>
     </row>
@@ -9873,7 +9870,7 @@
       <c r="A31" s="2">
         <v>401</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="10">
         <v>53</v>
       </c>
     </row>
@@ -9881,7 +9878,7 @@
       <c r="A32" s="2">
         <v>147</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="10">
         <v>75.8</v>
       </c>
     </row>
@@ -9889,7 +9886,7 @@
       <c r="A33" s="2">
         <v>13</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="10">
         <v>21.3</v>
       </c>
     </row>
@@ -9897,7 +9894,7 @@
       <c r="A34" s="2">
         <v>48</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="10">
         <v>41.1</v>
       </c>
     </row>
@@ -9905,7 +9902,7 @@
       <c r="A35" s="2">
         <v>542</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="10">
         <v>41.4</v>
       </c>
     </row>
@@ -9913,7 +9910,7 @@
       <c r="A36" s="2">
         <v>72</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="10">
         <v>11.4</v>
       </c>
     </row>
@@ -9921,7 +9918,7 @@
       <c r="A37" s="2">
         <v>1128</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <v>63.7</v>
       </c>
     </row>
@@ -9929,7 +9926,7 @@
       <c r="A38" s="2">
         <v>107</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="10">
         <v>78.900000000000006</v>
       </c>
     </row>
@@ -9937,7 +9934,7 @@
       <c r="A39" s="2">
         <v>2212</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="10">
         <v>100</v>
       </c>
     </row>
@@ -9945,7 +9942,7 @@
       <c r="A40" s="2">
         <v>725</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="10">
         <v>100</v>
       </c>
     </row>
@@ -9953,7 +9950,7 @@
       <c r="A41" s="2">
         <v>131</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="10">
         <v>76.900000000000006</v>
       </c>
     </row>
@@ -9961,7 +9958,7 @@
       <c r="A42" s="2">
         <v>1319</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="10">
         <v>100</v>
       </c>
     </row>
@@ -9969,7 +9966,7 @@
       <c r="A43" s="2">
         <v>1801</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="10">
         <v>100</v>
       </c>
     </row>
@@ -9977,7 +9974,7 @@
       <c r="A44" s="2">
         <v>3</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="10">
         <v>73.7</v>
       </c>
     </row>
@@ -9985,7 +9982,7 @@
       <c r="A45" s="2">
         <v>7</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="10">
         <v>20.5</v>
       </c>
     </row>
@@ -9993,7 +9990,7 @@
       <c r="A46" s="2">
         <v>9</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="10">
         <v>15</v>
       </c>
     </row>
@@ -10001,7 +9998,7 @@
       <c r="A47" s="2">
         <v>4</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="10">
         <v>35.9</v>
       </c>
     </row>
@@ -10009,7 +10006,7 @@
       <c r="A48" s="2">
         <v>7</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="10">
         <v>48.8</v>
       </c>
     </row>
@@ -10017,7 +10014,7 @@
       <c r="A49" s="2">
         <v>6</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="10">
         <v>10.6</v>
       </c>
     </row>
@@ -10025,7 +10022,7 @@
       <c r="A50" s="2">
         <v>47</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="10">
         <v>12.9</v>
       </c>
     </row>
@@ -10033,7 +10030,7 @@
       <c r="A51" s="2">
         <v>3</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="10">
         <v>6.3</v>
       </c>
     </row>

--- a/xlsx/rq3.xlsx
+++ b/xlsx/rq3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4959A0-6B18-467A-AFA9-3FB085858E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD0F02F-486F-49EB-9F60-B96376CAD828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mutation score" sheetId="1" r:id="rId1"/>
@@ -224,7 +224,7 @@
     <t>MS</t>
   </si>
   <si>
-    <t>CORRELACION</t>
+    <t>CORRELATION</t>
   </si>
 </sst>
 </file>
@@ -8832,9 +8832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79D5890-D2B2-4731-A3AA-3996E33BFF08}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
